--- a/py/tests/new_struct_sim_experiments/2_symbols/results/inter_n/n_fisso_5/results_2_symbols_n_5_isomorphism.xlsx
+++ b/py/tests/new_struct_sim_experiments/2_symbols/results/inter_n/n_fisso_5/results_2_symbols_n_5_isomorphism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="16000"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25520" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14979,20 +14979,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average similarity</a:t>
+              <a:t>Average</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="en-US"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>N_fisso = 5 &amp;&amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N_mobile = 2: 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -15408,11 +15396,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1027118288"/>
-        <c:axId val="-1067691472"/>
+        <c:axId val="-702394928"/>
+        <c:axId val="-702331024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1027118288"/>
+        <c:axId val="-702394928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15439,7 +15427,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>N_mobile</a:t>
+                  <a:t>N</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15511,7 +15499,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1067691472"/>
+        <c:crossAx val="-702331024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15519,7 +15507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1067691472"/>
+        <c:axId val="-702331024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15560,7 +15548,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Similarity</a:t>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>imilarity</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15625,7 +15621,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1027118288"/>
+        <c:crossAx val="-702394928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15721,6 +15717,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -16117,18 +16138,88 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1065489808"/>
-        <c:axId val="-1065487328"/>
+        <c:axId val="-702240240"/>
+        <c:axId val="-702238192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1065489808"/>
+        <c:axId val="-702240240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16166,7 +16257,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1065487328"/>
+        <c:crossAx val="-702238192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16174,7 +16265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1065487328"/>
+        <c:axId val="-702238192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16194,7 +16285,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Average iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -16224,7 +16371,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1065489808"/>
+        <c:crossAx val="-702240240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16236,6 +16383,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -16672,17 +16851,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="-1067657104"/>
-        <c:axId val="-1067654352"/>
+        <c:axId val="-702213808"/>
+        <c:axId val="-702211488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1067657104"/>
+        <c:axId val="-702213808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16720,7 +16969,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1067654352"/>
+        <c:crossAx val="-702211488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16728,7 +16977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1067654352"/>
+        <c:axId val="-702211488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16748,7 +16997,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Variance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -16778,7 +17083,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1067657104"/>
+        <c:crossAx val="-702213808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16790,6 +17095,796 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$111:$A$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$111:$B$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.660533854166667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.678737220293209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.649356692467207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.674747640978652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.659413036908436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.671417918113426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.712892595204797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.715799223210841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.729519038628472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.726115024032278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.733247908227238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.737660880674511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.745645724611097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.754535039705504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.749311955254951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.754617721092947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.750888406069893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.762060497644997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.752028789771117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.764896901122042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.758092722399049</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.767278217029964</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.759082656735533</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.773020866689172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.769379243425283</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.772193805459105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.769840385681906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.771081674956827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.780022658201977</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.775361469987783</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.779742596209491</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.779247328920718</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.777199000186012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.781781030775785</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.777543253882137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.781847736625515</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.781187269121334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.779577726086275</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.784345042725327</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.774414910289443</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.789462537374614</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.776727316020448</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.789083177806712</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.777146445737342</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.785839279513889</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.786373720019933</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.781161851369599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.792456074982317</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78472833994709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-840743088"/>
+        <c:axId val="-755173456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-840743088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-755173456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-755173456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>imilarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-840743088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -16876,6 +17971,46 @@
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -18401,20 +19536,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18435,16 +20073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18467,14 +20105,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18488,6 +20126,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18785,8 +20453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KF159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H121" workbookViewId="0">
-      <selection activeCell="C110" activeCellId="1" sqref="A110:A159 C110:C159"/>
+    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
+      <selection activeCell="S141" sqref="S141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
